--- a/biology/Botanique/Baron_Girod_de_l'Ain/Baron_Girod_de_l'Ain.xlsx
+++ b/biology/Botanique/Baron_Girod_de_l'Ain/Baron_Girod_de_l'Ain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baron_Girod_de_l%27Ain</t>
+          <t>Baron_Girod_de_l'Ain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Baron Girod de l’Ain' est un cultivar de rosier Bourbon hybride remontant[1] obtenu par le rosiériste français Reverchon en 1897[2]. Il doit son nom au baron Girod de l'Ain (1781-1847), homme politique français, pour le cinquantenaire de sa mort. Ce rosier d'autrefois fort original est toujours très apprécié dans de nombreux pays par la couleur carmin remarquable de ses pétales bordés d'un liséré blanc.
+'Baron Girod de l’Ain' est un cultivar de rosier Bourbon hybride remontant obtenu par le rosiériste français Reverchon en 1897. Il doit son nom au baron Girod de l'Ain (1781-1847), homme politique français, pour le cinquantenaire de sa mort. Ce rosier d'autrefois fort original est toujours très apprécié dans de nombreux pays par la couleur carmin remarquable de ses pétales bordés d'un liséré blanc.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Baron_Girod_de_l%27Ain</t>
+          <t>Baron_Girod_de_l'Ain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le buisson atteint 100–150 cm de hauteur et 90–120 cm de largeur. Les fleurs doubles mesurent de 12 à 14 cm de moyenne et arborent une couleur remarquable d'un rouge carmin foncé avec quelques stries blanches en liséré très légères au bord des pétales[3] finement dentelés[4],[5]. Son parfum est fort et agréable[6]. Sa floraison est remontante[4], avec une floraison abondante à la fin du printemps et puis une autre moins luxuriante au cours du mois de septembre[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le buisson atteint 100–150 cm de hauteur et 90–120 cm de largeur. Les fleurs doubles mesurent de 12 à 14 cm de moyenne et arborent une couleur remarquable d'un rouge carmin foncé avec quelques stries blanches en liséré très légères au bord des pétales finement dentelés,. Son parfum est fort et agréable. Sa floraison est remontante, avec une floraison abondante à la fin du printemps et puis une autre moins luxuriante au cours du mois de septembre.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Baron_Girod_de_l%27Ain</t>
+          <t>Baron_Girod_de_l'Ain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Ascendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier est une mutation du rosier 'Eugène Fürst' (1875, Soupert &amp; Notting, Luxembourg)[5]. D'après le site Helpmefind.com[8]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier est une mutation du rosier 'Eugène Fürst' (1875, Soupert &amp; Notting, Luxembourg). D'après le site Helpmefind.com:
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Baron_Girod_de_l%27Ain</t>
+          <t>Baron_Girod_de_l'Ain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa zone de rusticité est: 6b (−17,8 °C… −20,6 °C)[2]. Il est moyennement résistant à la maladie des taches noires[9]. Il a besoin d'être taillé à la fin de l'été[10]. Il faut éviter le soleil brûlant[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa zone de rusticité est: 6b (−17,8 °C… −20,6 °C). Il est moyennement résistant à la maladie des taches noires. Il a besoin d'être taillé à la fin de l'été. Il faut éviter le soleil brûlant.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Baron_Girod_de_l%27Ain</t>
+          <t>Baron_Girod_de_l'Ain</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Quelques distinctions américaines</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Victorian (ARS). Olympia Rose Society Show. 2012
 Victorian (ARS). Central Louisiana Rose Society Show. 2001
@@ -616,7 +636,7 @@
 Victorian (ARS). Thumb Rose Society Show. 2000
 Victorian (ARS). Western Reserve Rose Society Show. 2000
 Victorian (ARS). Rose Society of Tucson Show. 1999
-Victorian (ARS). Southwest Oregon Rose Society Show. 1998[12]</t>
+Victorian (ARS). Southwest Oregon Rose Society Show. 1998</t>
         </is>
       </c>
     </row>
